--- a/InputData/elec/GBCGpUNR/Grid Bat Cap Growth per Unit Net Revenue.xlsx
+++ b/InputData/elec/GBCGpUNR/Grid Bat Cap Growth per Unit Net Revenue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\GBCGpUNR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\GBCGpUNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549484AF-F62E-43CE-B3A5-4A4A54D4AC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FBC464-409D-476B-849A-6B925C9C0E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11385" xr2:uid="{7E47E401-4FF2-4F75-986A-BA871D3584BD}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" activeTab="1" xr2:uid="{7E47E401-4FF2-4F75-986A-BA871D3584BD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BF9ED0-8E48-4355-BDAD-C352BC3B92D2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:H16"/>
     </sheetView>
   </sheetViews>
@@ -464,8 +464,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>3500</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/GBCGpUNR/Grid Bat Cap Growth per Unit Net Revenue.xlsx
+++ b/InputData/elec/GBCGpUNR/Grid Bat Cap Growth per Unit Net Revenue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\GBCGpUNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FBC464-409D-476B-849A-6B925C9C0E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C74A81D-3725-4C8A-8875-8C49E5853CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" activeTab="1" xr2:uid="{7E47E401-4FF2-4F75-986A-BA871D3584BD}"/>
+    <workbookView xWindow="-24120" yWindow="-1185" windowWidth="24240" windowHeight="13140" xr2:uid="{7E47E401-4FF2-4F75-986A-BA871D3584BD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -428,18 +428,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BF9ED0-8E48-4355-BDAD-C352BC3B92D2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -464,16 +464,16 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="62.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>

--- a/InputData/elec/GBCGpUNR/Grid Bat Cap Growth per Unit Net Revenue.xlsx
+++ b/InputData/elec/GBCGpUNR/Grid Bat Cap Growth per Unit Net Revenue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\GBCGpUNR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\European Union\Models\eps-eu\InputData\elec\GBCGpUNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C74A81D-3725-4C8A-8875-8C49E5853CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F13C621-7BF2-4C98-8474-860B5CC636DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1185" windowWidth="24240" windowHeight="13140" xr2:uid="{7E47E401-4FF2-4F75-986A-BA871D3584BD}"/>
+    <workbookView xWindow="29355" yWindow="4050" windowWidth="24825" windowHeight="15930" xr2:uid="{7E47E401-4FF2-4F75-986A-BA871D3584BD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>GBPGpUNR Grid Battery Percent Growth per Unit Net Revenue</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>MW per $/MWh net revenue</t>
+  </si>
+  <si>
+    <t>For the EU, roughly calibrated against EU scenario from BNEF.</t>
   </si>
 </sst>
 </file>
@@ -130,9 +133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -276,7 +279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,17 +432,17 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -447,9 +450,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -468,12 +474,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.81640625" customWidth="1"/>
+    <col min="1" max="1" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -481,12 +487,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/GBCGpUNR/Grid Bat Cap Growth per Unit Net Revenue.xlsx
+++ b/InputData/elec/GBCGpUNR/Grid Bat Cap Growth per Unit Net Revenue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\GBCGpUNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C74A81D-3725-4C8A-8875-8C49E5853CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FBC464-409D-476B-849A-6B925C9C0E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1185" windowWidth="24240" windowHeight="13140" xr2:uid="{7E47E401-4FF2-4F75-986A-BA871D3584BD}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" activeTab="1" xr2:uid="{7E47E401-4FF2-4F75-986A-BA871D3584BD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -428,18 +428,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BF9ED0-8E48-4355-BDAD-C352BC3B92D2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -464,16 +464,16 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.81640625" customWidth="1"/>
+    <col min="1" max="1" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
